--- a/data/qcd_testcases.xlsx
+++ b/data/qcd_testcases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="775" visibility="visible" windowHeight="15030" windowWidth="1980" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="1980" windowHeight="15030" tabRatio="775" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -194,100 +194,100 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -461,7 +461,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -729,24 +729,24 @@
   </sheetPr>
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A11" ySplit="1"/>
-      <selection activeCell="N40" pane="bottomLeft" sqref="N40"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="23" width="8.125"/>
-    <col customWidth="1" max="2" min="2" style="23" width="10.75"/>
-    <col customWidth="1" max="3" min="3" style="24" width="37.875"/>
-    <col customWidth="1" max="4" min="4" style="24" width="13.625"/>
-    <col customWidth="1" max="5" min="5" style="24" width="9.375"/>
-    <col customWidth="1" max="6" min="6" style="23" width="20.125"/>
-    <col customWidth="1" max="7" min="7" style="23" width="50.125"/>
-    <col customWidth="1" max="9" min="8" style="23" width="48.25"/>
-    <col customWidth="1" max="10" min="10" style="23" width="10.375"/>
-    <col customWidth="1" max="153" min="11" style="23" width="8.875"/>
-    <col customWidth="1" max="16384" min="154" style="23" width="8.875"/>
+    <col width="8.125" customWidth="1" style="23" min="1" max="1"/>
+    <col width="10.75" customWidth="1" style="23" min="2" max="2"/>
+    <col width="37.875" customWidth="1" style="24" min="3" max="3"/>
+    <col width="13.625" customWidth="1" style="24" min="4" max="4"/>
+    <col width="9.375" customWidth="1" style="24" min="5" max="5"/>
+    <col width="20.125" customWidth="1" style="23" min="6" max="6"/>
+    <col width="50.125" customWidth="1" style="23" min="7" max="7"/>
+    <col width="48.25" customWidth="1" style="23" min="8" max="9"/>
+    <col width="10.375" customWidth="1" style="23" min="10" max="10"/>
+    <col width="8.875" customWidth="1" style="23" min="11" max="153"/>
+    <col width="8.875" customWidth="1" style="23" min="154" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3378,17 +3378,17 @@
     <mergeCell ref="B2:B55"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule dxfId="1" operator="containsText" priority="1" text="FAIL" type="containsText">
+    <cfRule type="containsText" priority="1" operator="containsText" dxfId="1" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J1)))</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="containsText" priority="2" text="PASS" type="containsText">
+    <cfRule type="containsText" priority="2" operator="containsText" dxfId="0" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J1)))</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="containsText" priority="3" text="FAIL" type="containsText">
+    <cfRule type="containsText" priority="3" operator="containsText" dxfId="0" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -3401,24 +3401,24 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="23" width="9.75"/>
-    <col customWidth="1" max="2" min="2" style="23" width="11.375"/>
-    <col customWidth="1" max="3" min="3" style="24" width="22.25"/>
-    <col customWidth="1" max="4" min="4" style="24" width="14"/>
-    <col customWidth="1" max="5" min="5" style="24" width="10"/>
-    <col customWidth="1" max="6" min="6" style="24" width="23"/>
-    <col customWidth="1" max="7" min="7" style="23" width="63.625"/>
-    <col customWidth="1" max="8" min="8" style="23" width="16.375"/>
-    <col customWidth="1" max="9" min="9" style="23" width="82.5"/>
-    <col customWidth="1" max="10" min="10" style="23" width="10.375"/>
-    <col customWidth="1" max="89" min="11" style="23" width="8.875"/>
-    <col customWidth="1" max="16384" min="90" style="23" width="8.875"/>
+    <col width="9.75" customWidth="1" style="23" min="1" max="1"/>
+    <col width="11.375" customWidth="1" style="23" min="2" max="2"/>
+    <col width="22.25" customWidth="1" style="24" min="3" max="3"/>
+    <col width="14" customWidth="1" style="24" min="4" max="4"/>
+    <col width="10" customWidth="1" style="24" min="5" max="5"/>
+    <col width="23" customWidth="1" style="24" min="6" max="6"/>
+    <col width="63.625" customWidth="1" style="23" min="7" max="7"/>
+    <col width="16.375" customWidth="1" style="23" min="8" max="8"/>
+    <col width="82.5" customWidth="1" style="23" min="9" max="9"/>
+    <col width="10.375" customWidth="1" style="23" min="10" max="10"/>
+    <col width="8.875" customWidth="1" style="23" min="11" max="89"/>
+    <col width="8.875" customWidth="1" style="23" min="90" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3570,7 +3570,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3582,23 +3582,23 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="23" width="9.25"/>
-    <col customWidth="1" max="2" min="2" style="23" width="15.5"/>
-    <col customWidth="1" max="3" min="3" style="24" width="42.375"/>
-    <col customWidth="1" max="4" min="4" style="24" width="27.25"/>
-    <col customWidth="1" max="5" min="5" style="24" width="13.5"/>
-    <col customWidth="1" max="6" min="6" style="23" width="34.5"/>
-    <col customWidth="1" max="7" min="7" style="23" width="15.875"/>
-    <col customWidth="1" max="8" min="8" style="23" width="108.25"/>
-    <col customWidth="1" max="9" min="9" style="23" width="10.375"/>
-    <col customWidth="1" max="152" min="10" style="23" width="8.875"/>
-    <col customWidth="1" max="16384" min="153" style="23" width="8.875"/>
+    <col width="9.25" customWidth="1" style="23" min="1" max="1"/>
+    <col width="15.5" customWidth="1" style="23" min="2" max="2"/>
+    <col width="42.375" customWidth="1" style="24" min="3" max="3"/>
+    <col width="27.25" customWidth="1" style="24" min="4" max="4"/>
+    <col width="13.5" customWidth="1" style="24" min="5" max="5"/>
+    <col width="34.5" customWidth="1" style="23" min="6" max="6"/>
+    <col width="15.875" customWidth="1" style="23" min="7" max="7"/>
+    <col width="108.25" customWidth="1" style="23" min="8" max="8"/>
+    <col width="10.375" customWidth="1" style="23" min="9" max="9"/>
+    <col width="8.875" customWidth="1" style="23" min="10" max="152"/>
+    <col width="8.875" customWidth="1" style="23" min="153" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3804,7 +3804,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:B5"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3816,23 +3816,23 @@
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="24" width="13.625"/>
-    <col customWidth="1" max="2" min="2" style="24" width="33.5"/>
-    <col customWidth="1" max="3" min="3" style="24" width="44.125"/>
-    <col customWidth="1" max="4" min="4" style="24" width="38.625"/>
-    <col customWidth="1" max="5" min="5" style="24" width="13.5"/>
-    <col customWidth="1" max="6" min="6" style="24" width="54.125"/>
-    <col customWidth="1" max="7" min="7" style="24" width="34"/>
-    <col customWidth="1" max="8" min="8" style="24" width="128.375"/>
-    <col customWidth="1" max="9" min="9" style="24" width="10.375"/>
-    <col customWidth="1" max="152" min="10" style="24" width="8.875"/>
-    <col customWidth="1" max="16384" min="153" style="24" width="8.875"/>
+    <col width="13.625" customWidth="1" style="24" min="1" max="1"/>
+    <col width="33.5" customWidth="1" style="24" min="2" max="2"/>
+    <col width="44.125" customWidth="1" style="24" min="3" max="3"/>
+    <col width="38.625" customWidth="1" style="24" min="4" max="4"/>
+    <col width="13.5" customWidth="1" style="24" min="5" max="5"/>
+    <col width="54.125" customWidth="1" style="24" min="6" max="6"/>
+    <col width="34" customWidth="1" style="24" min="7" max="7"/>
+    <col width="128.375" customWidth="1" style="24" min="8" max="8"/>
+    <col width="10.375" customWidth="1" style="24" min="9" max="9"/>
+    <col width="8.875" customWidth="1" style="24" min="10" max="152"/>
+    <col width="8.875" customWidth="1" style="24" min="153" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4001,7 +4001,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:B4"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4013,23 +4013,23 @@
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="23" width="13.625"/>
-    <col customWidth="1" max="2" min="2" style="23" width="33.5"/>
-    <col customWidth="1" max="3" min="3" style="24" width="44.125"/>
-    <col customWidth="1" max="4" min="4" style="24" width="33.375"/>
-    <col customWidth="1" max="5" min="5" style="24" width="13.5"/>
-    <col customWidth="1" max="6" min="6" style="24" width="46.75"/>
-    <col customWidth="1" max="7" min="7" style="23" width="29"/>
-    <col customWidth="1" max="8" min="8" style="23" width="128.375"/>
-    <col customWidth="1" max="9" min="9" style="23" width="10.375"/>
-    <col customWidth="1" max="152" min="10" style="23" width="8.875"/>
-    <col customWidth="1" max="16384" min="153" style="23" width="8.875"/>
+    <col width="13.625" customWidth="1" style="23" min="1" max="1"/>
+    <col width="33.5" customWidth="1" style="23" min="2" max="2"/>
+    <col width="44.125" customWidth="1" style="24" min="3" max="3"/>
+    <col width="33.375" customWidth="1" style="24" min="4" max="4"/>
+    <col width="13.5" customWidth="1" style="24" min="5" max="5"/>
+    <col width="46.75" customWidth="1" style="24" min="6" max="6"/>
+    <col width="29" customWidth="1" style="23" min="7" max="7"/>
+    <col width="128.375" customWidth="1" style="23" min="8" max="8"/>
+    <col width="10.375" customWidth="1" style="23" min="9" max="9"/>
+    <col width="8.875" customWidth="1" style="23" min="10" max="152"/>
+    <col width="8.875" customWidth="1" style="23" min="153" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4198,7 +4198,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:B4"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4210,23 +4210,23 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="23" width="13.625"/>
-    <col customWidth="1" max="2" min="2" style="23" width="27"/>
-    <col customWidth="1" max="3" min="3" style="24" width="46.125"/>
-    <col customWidth="1" max="4" min="4" style="24" width="31.875"/>
-    <col customWidth="1" max="5" min="5" style="24" width="13.5"/>
-    <col customWidth="1" max="6" min="6" style="23" width="53"/>
-    <col customWidth="1" max="7" min="7" style="23" width="34"/>
-    <col customWidth="1" max="8" min="8" style="23" width="128.375"/>
-    <col customWidth="1" max="9" min="9" style="23" width="10.375"/>
-    <col customWidth="1" max="152" min="10" style="23" width="8.875"/>
-    <col customWidth="1" max="16384" min="153" style="23" width="8.875"/>
+    <col width="13.625" customWidth="1" style="23" min="1" max="1"/>
+    <col width="27" customWidth="1" style="23" min="2" max="2"/>
+    <col width="46.125" customWidth="1" style="24" min="3" max="3"/>
+    <col width="31.875" customWidth="1" style="24" min="4" max="4"/>
+    <col width="13.5" customWidth="1" style="24" min="5" max="5"/>
+    <col width="53" customWidth="1" style="23" min="6" max="6"/>
+    <col width="34" customWidth="1" style="23" min="7" max="7"/>
+    <col width="128.375" customWidth="1" style="23" min="8" max="8"/>
+    <col width="10.375" customWidth="1" style="23" min="9" max="9"/>
+    <col width="8.875" customWidth="1" style="23" min="10" max="152"/>
+    <col width="8.875" customWidth="1" style="23" min="153" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4469,8 +4469,8 @@
   <mergeCells count="1">
     <mergeCell ref="B2:B6"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4482,23 +4482,23 @@
   </sheetPr>
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="23" width="8.875"/>
-    <col customWidth="1" max="2" min="2" style="23" width="11.875"/>
-    <col customWidth="1" max="3" min="3" style="23" width="27.375"/>
-    <col customWidth="1" max="4" min="4" style="23" width="12"/>
-    <col customWidth="1" max="5" min="5" style="23" width="10.25"/>
-    <col customWidth="1" max="6" min="6" style="23" width="24.625"/>
-    <col customWidth="1" max="7" min="7" style="23" width="55.625"/>
-    <col customWidth="1" max="8" min="8" style="23" width="46.25"/>
-    <col customWidth="1" max="9" min="9" style="23" width="19.875"/>
-    <col customWidth="1" max="152" min="10" style="23" width="8.875"/>
-    <col customWidth="1" max="16384" min="153" style="23" width="8.875"/>
+    <col width="8.875" customWidth="1" style="23" min="1" max="1"/>
+    <col width="11.875" customWidth="1" style="23" min="2" max="2"/>
+    <col width="27.375" customWidth="1" style="23" min="3" max="3"/>
+    <col width="12" customWidth="1" style="23" min="4" max="4"/>
+    <col width="10.25" customWidth="1" style="23" min="5" max="5"/>
+    <col width="24.625" customWidth="1" style="23" min="6" max="6"/>
+    <col width="55.625" customWidth="1" style="23" min="7" max="7"/>
+    <col width="46.25" customWidth="1" style="23" min="8" max="8"/>
+    <col width="19.875" customWidth="1" style="23" min="9" max="9"/>
+    <col width="8.875" customWidth="1" style="23" min="10" max="152"/>
+    <col width="8.875" customWidth="1" style="23" min="153" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5055,14 +5055,14 @@
     <mergeCell ref="B2:B11"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule dxfId="1" operator="containsText" priority="1" text="FAIL" type="containsText">
+    <cfRule type="containsText" priority="1" operator="containsText" dxfId="1" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",J1)))</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="containsText" priority="2" text="PASS" type="containsText">
+    <cfRule type="containsText" priority="2" operator="containsText" dxfId="0" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -5075,25 +5075,25 @@
   </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="G8" pane="bottomLeft" sqref="G8"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="23" width="9.75"/>
-    <col customWidth="1" max="2" min="2" style="23" width="11.375"/>
-    <col customWidth="1" max="3" min="3" style="24" width="22.25"/>
-    <col customWidth="1" max="4" min="4" style="24" width="14"/>
-    <col customWidth="1" max="5" min="5" style="24" width="10"/>
-    <col customWidth="1" max="6" min="6" style="24" width="23"/>
-    <col customWidth="1" max="7" min="7" style="23" width="63.625"/>
-    <col customWidth="1" max="8" min="8" style="23" width="27.5"/>
-    <col customWidth="1" max="10" min="9" style="23" width="42.875"/>
-    <col customWidth="1" max="11" min="11" style="23" width="10.375"/>
-    <col customWidth="1" max="154" min="12" style="23" width="8.875"/>
-    <col customWidth="1" max="16384" min="155" style="23" width="8.875"/>
+    <col width="9.75" customWidth="1" style="23" min="1" max="1"/>
+    <col width="11.375" customWidth="1" style="23" min="2" max="2"/>
+    <col width="22.25" customWidth="1" style="24" min="3" max="3"/>
+    <col width="14" customWidth="1" style="24" min="4" max="4"/>
+    <col width="10" customWidth="1" style="24" min="5" max="5"/>
+    <col width="23" customWidth="1" style="24" min="6" max="6"/>
+    <col width="63.625" customWidth="1" style="23" min="7" max="7"/>
+    <col width="27.5" customWidth="1" style="23" min="8" max="8"/>
+    <col width="42.875" customWidth="1" style="23" min="9" max="10"/>
+    <col width="10.375" customWidth="1" style="23" min="11" max="11"/>
+    <col width="8.875" customWidth="1" style="23" min="12" max="154"/>
+    <col width="8.875" customWidth="1" style="23" min="155" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5978,14 +5978,14 @@
     <mergeCell ref="B3:B17"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule dxfId="1" operator="containsText" priority="1" text="FAIL" type="containsText">
+    <cfRule type="containsText" priority="1" operator="containsText" dxfId="1" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K1)))</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="containsText" priority="2" text="PASS" type="containsText">
+    <cfRule type="containsText" priority="2" operator="containsText" dxfId="0" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -5998,26 +5998,26 @@
   </sheetPr>
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="G11" pane="bottomLeft" sqref="G11"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="23" width="9.25"/>
-    <col customWidth="1" max="2" min="2" style="23" width="11.375"/>
-    <col customWidth="1" max="3" min="3" style="24" width="28.875"/>
-    <col customWidth="1" max="4" min="4" style="24" width="12.75"/>
-    <col customWidth="1" max="5" min="5" style="24" width="9.625"/>
-    <col customWidth="1" max="6" min="6" style="24" width="24.25"/>
-    <col customWidth="1" max="7" min="7" style="23" width="65.25"/>
-    <col customWidth="1" max="8" min="8" style="23" width="28.375"/>
-    <col customWidth="1" max="10" min="9" style="23" width="34.25"/>
-    <col customWidth="1" max="11" min="11" style="23" width="10.375"/>
-    <col customWidth="1" max="12" min="12" style="4" width="29.5"/>
-    <col customWidth="1" max="155" min="13" style="23" width="8.875"/>
-    <col customWidth="1" max="16384" min="156" style="23" width="8.875"/>
+    <col width="9.25" customWidth="1" style="23" min="1" max="1"/>
+    <col width="11.375" customWidth="1" style="23" min="2" max="2"/>
+    <col width="28.875" customWidth="1" style="24" min="3" max="3"/>
+    <col width="12.75" customWidth="1" style="24" min="4" max="4"/>
+    <col width="9.625" customWidth="1" style="24" min="5" max="5"/>
+    <col width="24.25" customWidth="1" style="24" min="6" max="6"/>
+    <col width="65.25" customWidth="1" style="23" min="7" max="7"/>
+    <col width="28.375" customWidth="1" style="23" min="8" max="8"/>
+    <col width="34.25" customWidth="1" style="23" min="9" max="10"/>
+    <col width="10.375" customWidth="1" style="23" min="11" max="11"/>
+    <col width="29.5" customWidth="1" style="4" min="12" max="12"/>
+    <col width="8.875" customWidth="1" style="23" min="13" max="155"/>
+    <col width="8.875" customWidth="1" style="23" min="156" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7076,14 +7076,14 @@
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule dxfId="1" operator="containsText" priority="1" text="FAIL" type="containsText">
+    <cfRule type="containsText" priority="1" operator="containsText" dxfId="1" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K1)))</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="containsText" priority="2" text="PASS" type="containsText">
+    <cfRule type="containsText" priority="2" operator="containsText" dxfId="0" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -7096,29 +7096,29 @@
   </sheetPr>
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="G18" pane="bottomLeft" sqref="G18"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="23" width="9.5"/>
-    <col customWidth="1" max="2" min="2" style="24" width="12"/>
-    <col customWidth="1" max="3" min="3" style="24" width="26.5"/>
-    <col customWidth="1" max="4" min="4" style="24" width="11"/>
-    <col customWidth="1" max="5" min="5" style="24" width="9.625"/>
-    <col customWidth="1" max="6" min="6" style="23" width="18.75"/>
-    <col customWidth="1" max="7" min="7" style="23" width="37.5"/>
-    <col customWidth="1" max="8" min="8" style="23" width="20.75"/>
-    <col customWidth="1" max="9" min="9" style="23" width="40.625"/>
-    <col customWidth="1" max="10" min="10" style="23" width="36"/>
-    <col customWidth="1" max="11" min="11" style="23" width="7.375"/>
-    <col customWidth="1" max="154" min="12" style="23" width="8.875"/>
-    <col customWidth="1" max="16384" min="155" style="23" width="8.875"/>
+    <col width="9.5" customWidth="1" style="23" min="1" max="1"/>
+    <col width="12" customWidth="1" style="24" min="2" max="2"/>
+    <col width="26.5" customWidth="1" style="24" min="3" max="3"/>
+    <col width="11" customWidth="1" style="24" min="4" max="4"/>
+    <col width="9.625" customWidth="1" style="24" min="5" max="5"/>
+    <col width="18.75" customWidth="1" style="23" min="6" max="6"/>
+    <col width="37.5" customWidth="1" style="23" min="7" max="7"/>
+    <col width="20.75" customWidth="1" style="23" min="8" max="8"/>
+    <col width="40.625" customWidth="1" style="23" min="9" max="9"/>
+    <col width="36" customWidth="1" style="23" min="10" max="10"/>
+    <col width="7.375" customWidth="1" style="23" min="11" max="11"/>
+    <col width="8.875" customWidth="1" style="23" min="12" max="154"/>
+    <col width="8.875" customWidth="1" style="23" min="155" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="21" r="1">
+    <row r="1" ht="21" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -7180,7 +7180,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="21" r="2">
+    <row r="2" ht="21" customHeight="1">
       <c r="A2" s="9" t="n">
         <v>1</v>
       </c>
@@ -7243,7 +7243,7 @@
       <c r="R2" s="16" t="n"/>
       <c r="S2" s="16" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="3">
+    <row r="3" ht="21" customHeight="1">
       <c r="A3" s="9" t="n">
         <v>2</v>
       </c>
@@ -7306,7 +7306,7 @@
       <c r="R3" s="16" t="n"/>
       <c r="S3" s="16" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="4" s="24">
+    <row r="4" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
@@ -7373,7 +7373,7 @@
       <c r="R4" s="16" t="n"/>
       <c r="S4" s="16" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="5" s="24">
+    <row r="5" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A5" s="9" t="n">
         <v>4</v>
       </c>
@@ -7436,7 +7436,7 @@
       <c r="R5" s="16" t="n"/>
       <c r="S5" s="16" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="6" s="24">
+    <row r="6" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
@@ -7495,7 +7495,7 @@
       <c r="R6" s="13" t="n"/>
       <c r="S6" s="13" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="7" s="24">
+    <row r="7" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A7" s="18" t="n">
         <v>6</v>
       </c>
@@ -7558,7 +7558,7 @@
       <c r="R7" s="13" t="n"/>
       <c r="S7" s="13" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="8" s="24">
+    <row r="8" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
@@ -7621,7 +7621,7 @@
       <c r="R8" s="13" t="n"/>
       <c r="S8" s="13" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="9" s="24">
+    <row r="9" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A9" s="18" t="n">
         <v>8</v>
       </c>
@@ -7676,7 +7676,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="10" s="24">
+    <row r="10" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A10" s="18" t="n">
         <v>9</v>
       </c>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="11" s="24">
+    <row r="11" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A11" s="9" t="n">
         <v>10</v>
       </c>
@@ -7770,7 +7770,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="12" s="24">
+    <row r="12" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A12" s="18" t="n">
         <v>11</v>
       </c>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="13" s="24">
+    <row r="13" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A13" s="9" t="n">
         <v>12</v>
       </c>
@@ -7872,7 +7872,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="14" s="24">
+    <row r="14" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A14" s="18" t="n">
         <v>13</v>
       </c>
@@ -7923,7 +7923,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="15" s="24">
+    <row r="15" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A15" s="18" t="n">
         <v>14</v>
       </c>
@@ -7970,7 +7970,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="16" s="24">
+    <row r="16" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A16" s="18" t="n">
         <v>15</v>
       </c>
@@ -8017,7 +8017,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="17" s="24">
+    <row r="17" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A17" s="18" t="n">
         <v>16</v>
       </c>
@@ -8064,7 +8064,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="18" s="24">
+    <row r="18" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A18" s="18" t="n">
         <v>17</v>
       </c>
@@ -8111,7 +8111,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="19" s="24">
+    <row r="19" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A19" s="18" t="n">
         <v>18</v>
       </c>
@@ -8158,7 +8158,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="20" s="24">
+    <row r="20" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A20" s="18" t="n">
         <v>19</v>
       </c>
@@ -8205,7 +8205,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="21" s="24">
+    <row r="21" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A21" s="18" t="n">
         <v>20</v>
       </c>
@@ -8252,7 +8252,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="22" s="24">
+    <row r="22" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A22" s="18" t="n">
         <v>21</v>
       </c>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="23" s="24">
+    <row r="23" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A23" s="18" t="n">
         <v>22</v>
       </c>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="24" s="24">
+    <row r="24" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A24" s="18" t="n">
         <v>23</v>
       </c>
@@ -8393,7 +8393,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="25" s="24">
+    <row r="25" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A25" s="18" t="n">
         <v>24</v>
       </c>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="26" s="24">
+    <row r="26" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A26" s="18" t="n">
         <v>25</v>
       </c>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="27" s="24">
+    <row r="27" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A27" s="18" t="n">
         <v>26</v>
       </c>
@@ -8538,7 +8538,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="28" s="24">
+    <row r="28" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A28" s="18" t="n">
         <v>27</v>
       </c>
@@ -8585,7 +8585,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="29" s="24">
+    <row r="29" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A29" s="18" t="n">
         <v>28</v>
       </c>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="30" s="24">
+    <row r="30" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A30" s="18" t="n">
         <v>29</v>
       </c>
@@ -8679,7 +8679,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="31" s="24">
+    <row r="31" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A31" s="18" t="n">
         <v>30</v>
       </c>
@@ -8726,7 +8726,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21" r="32" s="24">
+    <row r="32" ht="21" customFormat="1" customHeight="1" s="24">
       <c r="A32" s="18" t="n">
         <v>31</v>
       </c>
@@ -8780,15 +8780,15 @@
     <mergeCell ref="B5:B6"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule dxfId="1" operator="containsText" priority="1" text="FAIL" type="containsText">
+    <cfRule type="containsText" priority="1" operator="containsText" dxfId="1" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K1)))</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="containsText" priority="2" text="PASS" type="containsText">
+    <cfRule type="containsText" priority="2" operator="containsText" dxfId="0" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8800,28 +8800,28 @@
   </sheetPr>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="G41" pane="bottomLeft" sqref="G41"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="24" width="13.625"/>
-    <col customWidth="1" max="2" min="2" style="23" width="12.5"/>
-    <col customWidth="1" max="3" min="3" style="6" width="34.125"/>
-    <col customWidth="1" max="4" min="4" style="24" width="10.125"/>
-    <col customWidth="1" max="5" min="5" style="6" width="9.75"/>
-    <col customWidth="1" max="6" min="6" style="23" width="17.875"/>
-    <col customWidth="1" max="7" min="7" style="23" width="44.375"/>
-    <col customWidth="1" max="8" min="8" style="23" width="50.625"/>
-    <col customWidth="1" max="10" min="9" style="24" width="33.875"/>
-    <col customWidth="1" max="11" min="11" style="24" width="8.875"/>
-    <col customWidth="1" max="153" min="12" style="23" width="8.875"/>
-    <col customWidth="1" max="16384" min="154" style="23" width="8.875"/>
+    <col width="13.625" customWidth="1" style="24" min="1" max="1"/>
+    <col width="12.5" customWidth="1" style="23" min="2" max="2"/>
+    <col width="34.125" customWidth="1" style="6" min="3" max="3"/>
+    <col width="10.125" customWidth="1" style="24" min="4" max="4"/>
+    <col width="9.75" customWidth="1" style="6" min="5" max="5"/>
+    <col width="17.875" customWidth="1" style="23" min="6" max="6"/>
+    <col width="44.375" customWidth="1" style="23" min="7" max="7"/>
+    <col width="50.625" customWidth="1" style="23" min="8" max="8"/>
+    <col width="33.875" customWidth="1" style="24" min="9" max="10"/>
+    <col width="8.875" customWidth="1" style="24" min="11" max="11"/>
+    <col width="8.875" customWidth="1" style="23" min="12" max="153"/>
+    <col width="8.875" customWidth="1" style="23" min="154" max="16384"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="24">
+    <row r="1" customFormat="1" s="24">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -8878,7 +8878,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="2" s="24">
+    <row r="2" customFormat="1" s="24">
       <c r="A2" s="28" t="n">
         <v>1</v>
       </c>
@@ -8940,7 +8940,7 @@
       <c r="Q2" s="13" t="n"/>
       <c r="R2" s="13" t="n"/>
     </row>
-    <row customFormat="1" r="3" s="6">
+    <row r="3" customFormat="1" s="6">
       <c r="A3" s="25" t="n">
         <v>2</v>
       </c>
@@ -9006,7 +9006,7 @@
       <c r="Q3" s="14" t="n"/>
       <c r="R3" s="14" t="n"/>
     </row>
-    <row customFormat="1" r="4" s="6">
+    <row r="4" customFormat="1" s="6">
       <c r="A4" s="25" t="n">
         <v>3</v>
       </c>
@@ -9068,7 +9068,7 @@
       <c r="Q4" s="14" t="n"/>
       <c r="R4" s="14" t="n"/>
     </row>
-    <row customFormat="1" r="5" s="6">
+    <row r="5" customFormat="1" s="6">
       <c r="A5" s="25" t="n">
         <v>4</v>
       </c>
@@ -9130,7 +9130,7 @@
       <c r="Q5" s="14" t="n"/>
       <c r="R5" s="14" t="n"/>
     </row>
-    <row customFormat="1" r="6" s="6">
+    <row r="6" customFormat="1" s="6">
       <c r="A6" s="25" t="n">
         <v>5</v>
       </c>
@@ -9181,7 +9181,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="7" s="6">
+    <row r="7" customFormat="1" s="6">
       <c r="A7" s="25" t="n">
         <v>6</v>
       </c>
@@ -9228,7 +9228,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="8" s="6">
+    <row r="8" customFormat="1" s="6">
       <c r="A8" s="25" t="n">
         <v>7</v>
       </c>
@@ -9275,7 +9275,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="9" s="6">
+    <row r="9" customFormat="1" s="6">
       <c r="A9" s="25" t="n">
         <v>8</v>
       </c>
@@ -9322,7 +9322,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="10" s="6">
+    <row r="10" customFormat="1" s="6">
       <c r="A10" s="25" t="n">
         <v>9</v>
       </c>
@@ -9369,7 +9369,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="11" s="6">
+    <row r="11" customFormat="1" s="6">
       <c r="A11" s="25" t="n">
         <v>10</v>
       </c>
@@ -9416,7 +9416,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="12" s="6">
+    <row r="12" customFormat="1" s="6">
       <c r="A12" s="25" t="n">
         <v>11</v>
       </c>
@@ -9463,7 +9463,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="13" s="6">
+    <row r="13" customFormat="1" s="6">
       <c r="A13" s="25" t="n">
         <v>12</v>
       </c>
@@ -9510,7 +9510,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="14" s="6">
+    <row r="14" customFormat="1" s="6">
       <c r="A14" s="25" t="n">
         <v>13</v>
       </c>
@@ -9557,7 +9557,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="15" s="6">
+    <row r="15" customFormat="1" s="6">
       <c r="A15" s="25" t="n">
         <v>14</v>
       </c>
@@ -9604,7 +9604,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="16" s="6">
+    <row r="16" customFormat="1" s="6">
       <c r="A16" s="25" t="n">
         <v>15</v>
       </c>
@@ -9651,7 +9651,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="17" s="6">
+    <row r="17" customFormat="1" s="6">
       <c r="A17" s="25" t="n">
         <v>16</v>
       </c>
@@ -9698,7 +9698,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="18" s="6">
+    <row r="18" customFormat="1" s="6">
       <c r="A18" s="25" t="n">
         <v>17</v>
       </c>
@@ -9745,7 +9745,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="19" s="6">
+    <row r="19" customFormat="1" s="6">
       <c r="A19" s="25" t="n">
         <v>18</v>
       </c>
@@ -9792,7 +9792,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="20" s="6">
+    <row r="20" customFormat="1" s="6">
       <c r="A20" s="25" t="n">
         <v>19</v>
       </c>
@@ -9839,7 +9839,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="21" s="6">
+    <row r="21" customFormat="1" s="6">
       <c r="A21" s="25" t="n">
         <v>20</v>
       </c>
@@ -9886,7 +9886,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="22" s="6">
+    <row r="22" customFormat="1" s="6">
       <c r="A22" s="25" t="n">
         <v>21</v>
       </c>
@@ -9933,7 +9933,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="23" s="6">
+    <row r="23" customFormat="1" s="6">
       <c r="A23" s="25" t="n">
         <v>22</v>
       </c>
@@ -9980,7 +9980,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="24" s="6">
+    <row r="24" customFormat="1" s="6">
       <c r="A24" s="25" t="n">
         <v>23</v>
       </c>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="25" s="6">
+    <row r="25" customFormat="1" s="6">
       <c r="A25" s="25" t="n">
         <v>24</v>
       </c>
@@ -10074,7 +10074,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="26" s="6">
+    <row r="26" customFormat="1" s="6">
       <c r="A26" s="25" t="n">
         <v>25</v>
       </c>
@@ -10121,7 +10121,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="27" s="6">
+    <row r="27" customFormat="1" s="6">
       <c r="A27" s="25" t="n">
         <v>26</v>
       </c>
@@ -10168,7 +10168,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="28" s="6">
+    <row r="28" customFormat="1" s="6">
       <c r="A28" s="25" t="n">
         <v>27</v>
       </c>
@@ -10215,7 +10215,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="29" s="6">
+    <row r="29" customFormat="1" s="6">
       <c r="A29" s="25" t="n">
         <v>28</v>
       </c>
@@ -10262,7 +10262,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="30" s="6">
+    <row r="30" customFormat="1" s="6">
       <c r="A30" s="25" t="n">
         <v>29</v>
       </c>
@@ -10314,15 +10314,15 @@
     <mergeCell ref="B3:B30"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule dxfId="1" operator="containsText" priority="1" text="FAIL" type="containsText">
+    <cfRule type="containsText" priority="1" operator="containsText" dxfId="1" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K1)))</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="containsText" priority="2" text="PASS" type="containsText">
+    <cfRule type="containsText" priority="2" operator="containsText" dxfId="0" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -10334,24 +10334,24 @@
   </sheetPr>
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="H38" pane="bottomLeft" sqref="H38"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="6" width="9.25"/>
-    <col customWidth="1" max="2" min="2" style="6" width="12.5"/>
-    <col customWidth="1" max="3" min="3" style="24" width="34.125"/>
-    <col customWidth="1" max="4" min="4" style="24" width="11.75"/>
-    <col customWidth="1" max="5" min="5" style="24" width="10.25"/>
-    <col customWidth="1" max="6" min="6" style="6" width="21.375"/>
-    <col customWidth="1" max="8" min="7" style="6" width="30.625"/>
-    <col customWidth="1" max="10" min="9" style="6" width="39.5"/>
-    <col customWidth="1" max="11" min="11" style="24" width="10.375"/>
-    <col customWidth="1" max="154" min="12" style="6" width="8.875"/>
-    <col customWidth="1" max="16384" min="155" style="6" width="8.875"/>
+    <col width="9.25" customWidth="1" style="6" min="1" max="1"/>
+    <col width="12.5" customWidth="1" style="6" min="2" max="2"/>
+    <col width="34.125" customWidth="1" style="24" min="3" max="3"/>
+    <col width="11.75" customWidth="1" style="24" min="4" max="4"/>
+    <col width="10.25" customWidth="1" style="24" min="5" max="5"/>
+    <col width="21.375" customWidth="1" style="6" min="6" max="6"/>
+    <col width="30.625" customWidth="1" style="6" min="7" max="8"/>
+    <col width="39.5" customWidth="1" style="6" min="9" max="10"/>
+    <col width="10.375" customWidth="1" style="24" min="11" max="11"/>
+    <col width="8.875" customWidth="1" style="6" min="12" max="154"/>
+    <col width="8.875" customWidth="1" style="6" min="155" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11625,15 +11625,15 @@
     <mergeCell ref="B4:B24"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule dxfId="1" operator="containsText" priority="1" text="FAIL" type="containsText">
+    <cfRule type="containsText" priority="1" operator="containsText" dxfId="1" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K1)))</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="containsText" priority="2" text="PASS" type="containsText">
+    <cfRule type="containsText" priority="2" operator="containsText" dxfId="0" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -11645,23 +11645,23 @@
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="23" width="13.625"/>
-    <col customWidth="1" max="2" min="2" style="23" width="19"/>
-    <col customWidth="1" max="3" min="3" style="24" width="22.375"/>
-    <col customWidth="1" max="4" min="4" style="24" width="20.75"/>
-    <col customWidth="1" max="5" min="5" style="24" width="13.5"/>
-    <col customWidth="1" max="6" min="6" style="23" width="31.375"/>
-    <col customWidth="1" max="8" min="7" style="23" width="31.75"/>
-    <col customWidth="1" max="10" min="9" style="23" width="26.75"/>
-    <col customWidth="1" max="11" min="11" style="24" width="10.375"/>
-    <col customWidth="1" max="154" min="12" style="23" width="8.875"/>
-    <col customWidth="1" max="16384" min="155" style="23" width="8.875"/>
+    <col width="13.625" customWidth="1" style="23" min="1" max="1"/>
+    <col width="19" customWidth="1" style="23" min="2" max="2"/>
+    <col width="22.375" customWidth="1" style="24" min="3" max="3"/>
+    <col width="20.75" customWidth="1" style="24" min="4" max="4"/>
+    <col width="13.5" customWidth="1" style="24" min="5" max="5"/>
+    <col width="31.375" customWidth="1" style="23" min="6" max="6"/>
+    <col width="31.75" customWidth="1" style="23" min="7" max="8"/>
+    <col width="26.75" customWidth="1" style="23" min="9" max="10"/>
+    <col width="10.375" customWidth="1" style="24" min="11" max="11"/>
+    <col width="8.875" customWidth="1" style="23" min="12" max="154"/>
+    <col width="8.875" customWidth="1" style="23" min="155" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12863,15 +12863,15 @@
     <mergeCell ref="B19:B23"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule dxfId="1" operator="containsText" priority="1" text="FAIL" type="containsText">
+    <cfRule type="containsText" priority="1" operator="containsText" dxfId="1" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",K1)))</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="containsText" priority="2" text="PASS" type="containsText">
+    <cfRule type="containsText" priority="2" operator="containsText" dxfId="0" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -12883,23 +12883,23 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="23" width="13.625"/>
-    <col customWidth="1" max="2" min="2" style="23" width="15.875"/>
-    <col customWidth="1" max="3" min="3" style="24" width="34.125"/>
-    <col customWidth="1" max="4" min="4" style="24" width="16.875"/>
-    <col customWidth="1" max="5" min="5" style="24" width="13.5"/>
-    <col customWidth="1" max="6" min="6" style="23" width="41.5"/>
-    <col customWidth="1" max="7" min="7" style="23" width="31"/>
-    <col customWidth="1" max="8" min="8" style="23" width="72.625"/>
-    <col customWidth="1" max="9" min="9" style="23" width="10.375"/>
-    <col customWidth="1" max="152" min="10" style="23" width="8.875"/>
-    <col customWidth="1" max="16384" min="153" style="23" width="8.875"/>
+    <col width="13.625" customWidth="1" style="23" min="1" max="1"/>
+    <col width="15.875" customWidth="1" style="23" min="2" max="2"/>
+    <col width="34.125" customWidth="1" style="24" min="3" max="3"/>
+    <col width="16.875" customWidth="1" style="24" min="4" max="4"/>
+    <col width="13.5" customWidth="1" style="24" min="5" max="5"/>
+    <col width="41.5" customWidth="1" style="23" min="6" max="6"/>
+    <col width="31" customWidth="1" style="23" min="7" max="7"/>
+    <col width="72.625" customWidth="1" style="23" min="8" max="8"/>
+    <col width="10.375" customWidth="1" style="23" min="9" max="9"/>
+    <col width="8.875" customWidth="1" style="23" min="10" max="152"/>
+    <col width="8.875" customWidth="1" style="23" min="153" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12949,7 +12949,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="2" s="24">
+    <row r="2" customFormat="1" s="24">
       <c r="A2" s="18" t="n">
         <v>1</v>
       </c>
@@ -12987,6 +12987,6 @@
       <c r="I2" s="25" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/qcd_testcases.xlsx
+++ b/data/qcd_testcases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="1980" windowHeight="15030" tabRatio="775" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19520" tabRatio="775" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="getFinanceLogList" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -55,6 +55,7 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
+      <family val="4"/>
       <sz val="9"/>
       <scheme val="minor"/>
     </font>
@@ -246,6 +247,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -257,10 +262,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -729,24 +730,24 @@
   </sheetPr>
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N40" sqref="N40"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col width="8.125" customWidth="1" style="23" min="1" max="1"/>
-    <col width="10.75" customWidth="1" style="23" min="2" max="2"/>
-    <col width="37.875" customWidth="1" style="24" min="3" max="3"/>
-    <col width="13.625" customWidth="1" style="24" min="4" max="4"/>
-    <col width="9.375" customWidth="1" style="24" min="5" max="5"/>
-    <col width="20.125" customWidth="1" style="23" min="6" max="6"/>
-    <col width="50.125" customWidth="1" style="23" min="7" max="7"/>
-    <col width="48.25" customWidth="1" style="23" min="8" max="9"/>
-    <col width="10.375" customWidth="1" style="23" min="10" max="10"/>
-    <col width="8.875" customWidth="1" style="23" min="11" max="153"/>
-    <col width="8.875" customWidth="1" style="23" min="154" max="16384"/>
+    <col width="8.1640625" customWidth="1" style="19" min="1" max="1"/>
+    <col width="10.6640625" customWidth="1" style="19" min="2" max="2"/>
+    <col width="37.83203125" customWidth="1" style="20" min="3" max="3"/>
+    <col width="13.6640625" customWidth="1" style="20" min="4" max="4"/>
+    <col width="9.33203125" customWidth="1" style="20" min="5" max="5"/>
+    <col width="20.1640625" customWidth="1" style="19" min="6" max="6"/>
+    <col width="50.1640625" customWidth="1" style="19" min="7" max="7"/>
+    <col width="48.1640625" customWidth="1" style="19" min="8" max="9"/>
+    <col width="10.33203125" customWidth="1" style="19" min="10" max="10"/>
+    <col width="8.83203125" customWidth="1" style="19" min="11" max="157"/>
+    <col width="8.83203125" customWidth="1" style="19" min="158" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1078,7 +1079,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M6" s="24" t="n"/>
+      <c r="M6" s="20" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="25" t="n">
@@ -1125,7 +1126,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M7" s="24" t="n"/>
+      <c r="M7" s="20" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="25" t="n">
@@ -1172,7 +1173,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M8" s="24" t="n"/>
+      <c r="M8" s="20" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="25" t="n">
@@ -1219,7 +1220,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M9" s="24" t="n"/>
+      <c r="M9" s="20" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="25" t="n">
@@ -1266,7 +1267,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M10" s="24" t="n"/>
+      <c r="M10" s="20" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="25" t="n">
@@ -1313,7 +1314,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M11" s="24" t="n"/>
+      <c r="M11" s="20" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="25" t="n">
@@ -1360,7 +1361,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M12" s="24" t="n"/>
+      <c r="M12" s="20" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="25" t="n">
@@ -1407,7 +1408,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M13" s="24" t="n"/>
+      <c r="M13" s="20" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="25" t="n">
@@ -1454,7 +1455,7 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="M14" s="24" t="n"/>
+      <c r="M14" s="20" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="25" t="n">
@@ -1501,7 +1502,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M15" s="24" t="n"/>
+      <c r="M15" s="20" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="25" t="n">
@@ -1548,7 +1549,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M16" s="24" t="n"/>
+      <c r="M16" s="20" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="25" t="n">
@@ -1595,7 +1596,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M17" s="24" t="n"/>
+      <c r="M17" s="20" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="25" t="n">
@@ -1642,7 +1643,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M18" s="24" t="n"/>
+      <c r="M18" s="20" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="25" t="n">
@@ -1689,7 +1690,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M19" s="24" t="n"/>
+      <c r="M19" s="20" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="25" t="n">
@@ -1736,7 +1737,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M20" s="24" t="n"/>
+      <c r="M20" s="20" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="25" t="n">
@@ -1783,7 +1784,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M21" s="24" t="n"/>
+      <c r="M21" s="20" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="25" t="n">
@@ -1830,7 +1831,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M22" s="24" t="n"/>
+      <c r="M22" s="20" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="25" t="n">
@@ -1877,7 +1878,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M23" s="24" t="n"/>
+      <c r="M23" s="20" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="25" t="n">
@@ -1924,7 +1925,7 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="M24" s="24" t="n"/>
+      <c r="M24" s="20" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="25" t="n">
@@ -1971,7 +1972,7 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="M25" s="24" t="n"/>
+      <c r="M25" s="20" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="25" t="n">
@@ -2018,7 +2019,7 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="M26" s="24" t="n"/>
+      <c r="M26" s="20" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="25" t="n">
@@ -2065,7 +2066,7 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="M27" s="24" t="n"/>
+      <c r="M27" s="20" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="25" t="n">
@@ -2112,7 +2113,7 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="M28" s="24" t="n"/>
+      <c r="M28" s="20" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="25" t="n">
@@ -2159,7 +2160,7 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="M29" s="24" t="n"/>
+      <c r="M29" s="20" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="25" t="n">
@@ -2206,7 +2207,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M30" s="24" t="n"/>
+      <c r="M30" s="20" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="25" t="n">
@@ -2253,7 +2254,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M31" s="24" t="n"/>
+      <c r="M31" s="20" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="25" t="n">
@@ -2300,7 +2301,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M32" s="24" t="n"/>
+      <c r="M32" s="20" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="25" t="n">
@@ -2347,7 +2348,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M33" s="24" t="n"/>
+      <c r="M33" s="20" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="25" t="n">
@@ -2394,7 +2395,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M34" s="24" t="n"/>
+      <c r="M34" s="20" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="25" t="n">
@@ -2441,7 +2442,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M35" s="24" t="n"/>
+      <c r="M35" s="20" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="25" t="n">
@@ -2488,7 +2489,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M36" s="24" t="n"/>
+      <c r="M36" s="20" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="25" t="n">
@@ -2535,7 +2536,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M37" s="24" t="n"/>
+      <c r="M37" s="20" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="25" t="n">
@@ -2582,7 +2583,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M38" s="24" t="n"/>
+      <c r="M38" s="20" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="25" t="n">
@@ -2629,7 +2630,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M39" s="24" t="n"/>
+      <c r="M39" s="20" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="25" t="n">
@@ -2676,7 +2677,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M40" s="24" t="n"/>
+      <c r="M40" s="20" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="25" t="n">
@@ -2723,7 +2724,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M41" s="24" t="n"/>
+      <c r="M41" s="20" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="25" t="n">
@@ -2770,7 +2771,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M42" s="24" t="n"/>
+      <c r="M42" s="20" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="25" t="n">
@@ -2817,7 +2818,7 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="M43" s="24" t="n"/>
+      <c r="M43" s="20" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="25" t="n">
@@ -2864,7 +2865,7 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="M44" s="24" t="n"/>
+      <c r="M44" s="20" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="25" t="n">
@@ -2911,7 +2912,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="M45" s="24" t="n"/>
+      <c r="M45" s="20" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="25" t="n">
@@ -3405,20 +3406,20 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col width="9.75" customWidth="1" style="23" min="1" max="1"/>
-    <col width="11.375" customWidth="1" style="23" min="2" max="2"/>
-    <col width="22.25" customWidth="1" style="24" min="3" max="3"/>
-    <col width="14" customWidth="1" style="24" min="4" max="4"/>
-    <col width="10" customWidth="1" style="24" min="5" max="5"/>
-    <col width="23" customWidth="1" style="24" min="6" max="6"/>
-    <col width="63.625" customWidth="1" style="23" min="7" max="7"/>
-    <col width="16.375" customWidth="1" style="23" min="8" max="8"/>
-    <col width="82.5" customWidth="1" style="23" min="9" max="9"/>
-    <col width="10.375" customWidth="1" style="23" min="10" max="10"/>
-    <col width="8.875" customWidth="1" style="23" min="11" max="89"/>
-    <col width="8.875" customWidth="1" style="23" min="90" max="16384"/>
+    <col width="9.6640625" customWidth="1" style="19" min="1" max="1"/>
+    <col width="11.33203125" customWidth="1" style="19" min="2" max="2"/>
+    <col width="22.1640625" customWidth="1" style="20" min="3" max="3"/>
+    <col width="14" customWidth="1" style="20" min="4" max="4"/>
+    <col width="10" customWidth="1" style="20" min="5" max="5"/>
+    <col width="23" customWidth="1" style="20" min="6" max="6"/>
+    <col width="63.6640625" customWidth="1" style="19" min="7" max="7"/>
+    <col width="16.33203125" customWidth="1" style="19" min="8" max="8"/>
+    <col width="82.5" customWidth="1" style="19" min="9" max="9"/>
+    <col width="10.33203125" customWidth="1" style="19" min="10" max="10"/>
+    <col width="8.83203125" customWidth="1" style="19" min="11" max="93"/>
+    <col width="8.83203125" customWidth="1" style="19" min="94" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3586,19 +3587,19 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col width="9.25" customWidth="1" style="23" min="1" max="1"/>
-    <col width="15.5" customWidth="1" style="23" min="2" max="2"/>
-    <col width="42.375" customWidth="1" style="24" min="3" max="3"/>
-    <col width="27.25" customWidth="1" style="24" min="4" max="4"/>
-    <col width="13.5" customWidth="1" style="24" min="5" max="5"/>
-    <col width="34.5" customWidth="1" style="23" min="6" max="6"/>
-    <col width="15.875" customWidth="1" style="23" min="7" max="7"/>
-    <col width="108.25" customWidth="1" style="23" min="8" max="8"/>
-    <col width="10.375" customWidth="1" style="23" min="9" max="9"/>
-    <col width="8.875" customWidth="1" style="23" min="10" max="152"/>
-    <col width="8.875" customWidth="1" style="23" min="153" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="19" min="1" max="1"/>
+    <col width="15.5" customWidth="1" style="19" min="2" max="2"/>
+    <col width="42.33203125" customWidth="1" style="20" min="3" max="3"/>
+    <col width="27.1640625" customWidth="1" style="20" min="4" max="4"/>
+    <col width="13.5" customWidth="1" style="20" min="5" max="5"/>
+    <col width="34.5" customWidth="1" style="19" min="6" max="6"/>
+    <col width="15.83203125" customWidth="1" style="19" min="7" max="7"/>
+    <col width="108.1640625" customWidth="1" style="19" min="8" max="8"/>
+    <col width="10.33203125" customWidth="1" style="19" min="9" max="9"/>
+    <col width="8.83203125" customWidth="1" style="19" min="10" max="156"/>
+    <col width="8.83203125" customWidth="1" style="19" min="157" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3820,19 +3821,19 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col width="13.625" customWidth="1" style="24" min="1" max="1"/>
-    <col width="33.5" customWidth="1" style="24" min="2" max="2"/>
-    <col width="44.125" customWidth="1" style="24" min="3" max="3"/>
-    <col width="38.625" customWidth="1" style="24" min="4" max="4"/>
-    <col width="13.5" customWidth="1" style="24" min="5" max="5"/>
-    <col width="54.125" customWidth="1" style="24" min="6" max="6"/>
-    <col width="34" customWidth="1" style="24" min="7" max="7"/>
-    <col width="128.375" customWidth="1" style="24" min="8" max="8"/>
-    <col width="10.375" customWidth="1" style="24" min="9" max="9"/>
-    <col width="8.875" customWidth="1" style="24" min="10" max="152"/>
-    <col width="8.875" customWidth="1" style="24" min="153" max="16384"/>
+    <col width="13.6640625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="33.5" customWidth="1" style="20" min="2" max="2"/>
+    <col width="44.1640625" customWidth="1" style="20" min="3" max="3"/>
+    <col width="38.6640625" customWidth="1" style="20" min="4" max="4"/>
+    <col width="13.5" customWidth="1" style="20" min="5" max="5"/>
+    <col width="54.1640625" customWidth="1" style="20" min="6" max="6"/>
+    <col width="34" customWidth="1" style="20" min="7" max="7"/>
+    <col width="128.33203125" customWidth="1" style="20" min="8" max="8"/>
+    <col width="10.33203125" customWidth="1" style="20" min="9" max="9"/>
+    <col width="8.83203125" customWidth="1" style="20" min="10" max="156"/>
+    <col width="8.83203125" customWidth="1" style="20" min="157" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4017,19 +4018,19 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col width="13.625" customWidth="1" style="23" min="1" max="1"/>
-    <col width="33.5" customWidth="1" style="23" min="2" max="2"/>
-    <col width="44.125" customWidth="1" style="24" min="3" max="3"/>
-    <col width="33.375" customWidth="1" style="24" min="4" max="4"/>
-    <col width="13.5" customWidth="1" style="24" min="5" max="5"/>
-    <col width="46.75" customWidth="1" style="24" min="6" max="6"/>
-    <col width="29" customWidth="1" style="23" min="7" max="7"/>
-    <col width="128.375" customWidth="1" style="23" min="8" max="8"/>
-    <col width="10.375" customWidth="1" style="23" min="9" max="9"/>
-    <col width="8.875" customWidth="1" style="23" min="10" max="152"/>
-    <col width="8.875" customWidth="1" style="23" min="153" max="16384"/>
+    <col width="13.6640625" customWidth="1" style="19" min="1" max="1"/>
+    <col width="33.5" customWidth="1" style="19" min="2" max="2"/>
+    <col width="44.1640625" customWidth="1" style="20" min="3" max="3"/>
+    <col width="33.33203125" customWidth="1" style="20" min="4" max="4"/>
+    <col width="13.5" customWidth="1" style="20" min="5" max="5"/>
+    <col width="46.6640625" customWidth="1" style="20" min="6" max="6"/>
+    <col width="29" customWidth="1" style="19" min="7" max="7"/>
+    <col width="128.33203125" customWidth="1" style="19" min="8" max="8"/>
+    <col width="10.33203125" customWidth="1" style="19" min="9" max="9"/>
+    <col width="8.83203125" customWidth="1" style="19" min="10" max="156"/>
+    <col width="8.83203125" customWidth="1" style="19" min="157" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4214,19 +4215,19 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col width="13.625" customWidth="1" style="23" min="1" max="1"/>
-    <col width="27" customWidth="1" style="23" min="2" max="2"/>
-    <col width="46.125" customWidth="1" style="24" min="3" max="3"/>
-    <col width="31.875" customWidth="1" style="24" min="4" max="4"/>
-    <col width="13.5" customWidth="1" style="24" min="5" max="5"/>
-    <col width="53" customWidth="1" style="23" min="6" max="6"/>
-    <col width="34" customWidth="1" style="23" min="7" max="7"/>
-    <col width="128.375" customWidth="1" style="23" min="8" max="8"/>
-    <col width="10.375" customWidth="1" style="23" min="9" max="9"/>
-    <col width="8.875" customWidth="1" style="23" min="10" max="152"/>
-    <col width="8.875" customWidth="1" style="23" min="153" max="16384"/>
+    <col width="13.6640625" customWidth="1" style="19" min="1" max="1"/>
+    <col width="27" customWidth="1" style="19" min="2" max="2"/>
+    <col width="46.1640625" customWidth="1" style="20" min="3" max="3"/>
+    <col width="31.83203125" customWidth="1" style="20" min="4" max="4"/>
+    <col width="13.5" customWidth="1" style="20" min="5" max="5"/>
+    <col width="53" customWidth="1" style="19" min="6" max="6"/>
+    <col width="34" customWidth="1" style="19" min="7" max="7"/>
+    <col width="128.33203125" customWidth="1" style="19" min="8" max="8"/>
+    <col width="10.33203125" customWidth="1" style="19" min="9" max="9"/>
+    <col width="8.83203125" customWidth="1" style="19" min="10" max="156"/>
+    <col width="8.83203125" customWidth="1" style="19" min="157" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4482,23 +4483,23 @@
   </sheetPr>
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col width="8.875" customWidth="1" style="23" min="1" max="1"/>
-    <col width="11.875" customWidth="1" style="23" min="2" max="2"/>
-    <col width="27.375" customWidth="1" style="23" min="3" max="3"/>
-    <col width="12" customWidth="1" style="23" min="4" max="4"/>
-    <col width="10.25" customWidth="1" style="23" min="5" max="5"/>
-    <col width="24.625" customWidth="1" style="23" min="6" max="6"/>
-    <col width="55.625" customWidth="1" style="23" min="7" max="7"/>
-    <col width="46.25" customWidth="1" style="23" min="8" max="8"/>
-    <col width="19.875" customWidth="1" style="23" min="9" max="9"/>
-    <col width="8.875" customWidth="1" style="23" min="10" max="152"/>
-    <col width="8.875" customWidth="1" style="23" min="153" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="19" min="1" max="1"/>
+    <col width="11.83203125" customWidth="1" style="19" min="2" max="2"/>
+    <col width="27.33203125" customWidth="1" style="19" min="3" max="3"/>
+    <col width="12" customWidth="1" style="19" min="4" max="4"/>
+    <col width="10.1640625" customWidth="1" style="19" min="5" max="5"/>
+    <col width="24.6640625" customWidth="1" style="19" min="6" max="6"/>
+    <col width="55.6640625" customWidth="1" style="19" min="7" max="7"/>
+    <col width="46.1640625" customWidth="1" style="19" min="8" max="8"/>
+    <col width="19.83203125" customWidth="1" style="19" min="9" max="9"/>
+    <col width="8.83203125" customWidth="1" style="19" min="10" max="156"/>
+    <col width="8.83203125" customWidth="1" style="19" min="157" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5080,20 +5081,20 @@
       <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col width="9.75" customWidth="1" style="23" min="1" max="1"/>
-    <col width="11.375" customWidth="1" style="23" min="2" max="2"/>
-    <col width="22.25" customWidth="1" style="24" min="3" max="3"/>
-    <col width="14" customWidth="1" style="24" min="4" max="4"/>
-    <col width="10" customWidth="1" style="24" min="5" max="5"/>
-    <col width="23" customWidth="1" style="24" min="6" max="6"/>
-    <col width="63.625" customWidth="1" style="23" min="7" max="7"/>
-    <col width="27.5" customWidth="1" style="23" min="8" max="8"/>
-    <col width="42.875" customWidth="1" style="23" min="9" max="10"/>
-    <col width="10.375" customWidth="1" style="23" min="11" max="11"/>
-    <col width="8.875" customWidth="1" style="23" min="12" max="154"/>
-    <col width="8.875" customWidth="1" style="23" min="155" max="16384"/>
+    <col width="9.6640625" customWidth="1" style="19" min="1" max="1"/>
+    <col width="11.33203125" customWidth="1" style="19" min="2" max="2"/>
+    <col width="22.1640625" customWidth="1" style="20" min="3" max="3"/>
+    <col width="14" customWidth="1" style="20" min="4" max="4"/>
+    <col width="10" customWidth="1" style="20" min="5" max="5"/>
+    <col width="23" customWidth="1" style="20" min="6" max="6"/>
+    <col width="63.6640625" customWidth="1" style="19" min="7" max="7"/>
+    <col width="27.5" customWidth="1" style="19" min="8" max="8"/>
+    <col width="42.83203125" customWidth="1" style="19" min="9" max="10"/>
+    <col width="10.33203125" customWidth="1" style="19" min="11" max="11"/>
+    <col width="8.83203125" customWidth="1" style="19" min="12" max="158"/>
+    <col width="8.83203125" customWidth="1" style="19" min="159" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6003,21 +6004,21 @@
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col width="9.25" customWidth="1" style="23" min="1" max="1"/>
-    <col width="11.375" customWidth="1" style="23" min="2" max="2"/>
-    <col width="28.875" customWidth="1" style="24" min="3" max="3"/>
-    <col width="12.75" customWidth="1" style="24" min="4" max="4"/>
-    <col width="9.625" customWidth="1" style="24" min="5" max="5"/>
-    <col width="24.25" customWidth="1" style="24" min="6" max="6"/>
-    <col width="65.25" customWidth="1" style="23" min="7" max="7"/>
-    <col width="28.375" customWidth="1" style="23" min="8" max="8"/>
-    <col width="34.25" customWidth="1" style="23" min="9" max="10"/>
-    <col width="10.375" customWidth="1" style="23" min="11" max="11"/>
+    <col width="9.1640625" customWidth="1" style="19" min="1" max="1"/>
+    <col width="11.33203125" customWidth="1" style="19" min="2" max="2"/>
+    <col width="28.83203125" customWidth="1" style="20" min="3" max="3"/>
+    <col width="12.6640625" customWidth="1" style="20" min="4" max="4"/>
+    <col width="9.6640625" customWidth="1" style="20" min="5" max="5"/>
+    <col width="24.1640625" customWidth="1" style="20" min="6" max="6"/>
+    <col width="65.1640625" customWidth="1" style="19" min="7" max="7"/>
+    <col width="28.33203125" customWidth="1" style="19" min="8" max="8"/>
+    <col width="34.1640625" customWidth="1" style="19" min="9" max="10"/>
+    <col width="10.33203125" customWidth="1" style="19" min="11" max="11"/>
     <col width="29.5" customWidth="1" style="4" min="12" max="12"/>
-    <col width="8.875" customWidth="1" style="23" min="13" max="155"/>
-    <col width="8.875" customWidth="1" style="23" min="156" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="19" min="13" max="159"/>
+    <col width="8.83203125" customWidth="1" style="19" min="160" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7101,21 +7102,21 @@
       <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col width="9.5" customWidth="1" style="23" min="1" max="1"/>
-    <col width="12" customWidth="1" style="24" min="2" max="2"/>
-    <col width="26.5" customWidth="1" style="24" min="3" max="3"/>
-    <col width="11" customWidth="1" style="24" min="4" max="4"/>
-    <col width="9.625" customWidth="1" style="24" min="5" max="5"/>
-    <col width="18.75" customWidth="1" style="23" min="6" max="6"/>
-    <col width="37.5" customWidth="1" style="23" min="7" max="7"/>
-    <col width="20.75" customWidth="1" style="23" min="8" max="8"/>
-    <col width="40.625" customWidth="1" style="23" min="9" max="9"/>
-    <col width="36" customWidth="1" style="23" min="10" max="10"/>
-    <col width="7.375" customWidth="1" style="23" min="11" max="11"/>
-    <col width="8.875" customWidth="1" style="23" min="12" max="154"/>
-    <col width="8.875" customWidth="1" style="23" min="155" max="16384"/>
+    <col width="9.5" customWidth="1" style="19" min="1" max="1"/>
+    <col width="12" customWidth="1" style="20" min="2" max="2"/>
+    <col width="26.5" customWidth="1" style="20" min="3" max="3"/>
+    <col width="11" customWidth="1" style="20" min="4" max="4"/>
+    <col width="9.6640625" customWidth="1" style="20" min="5" max="5"/>
+    <col width="18.6640625" customWidth="1" style="19" min="6" max="6"/>
+    <col width="37.5" customWidth="1" style="19" min="7" max="7"/>
+    <col width="20.6640625" customWidth="1" style="19" min="8" max="8"/>
+    <col width="40.6640625" customWidth="1" style="19" min="9" max="9"/>
+    <col width="36" customWidth="1" style="19" min="10" max="10"/>
+    <col width="7.33203125" customWidth="1" style="19" min="11" max="11"/>
+    <col width="8.83203125" customWidth="1" style="19" min="12" max="158"/>
+    <col width="8.83203125" customWidth="1" style="19" min="159" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
@@ -7174,7 +7175,7 @@
           <t>result</t>
         </is>
       </c>
-      <c r="L1" s="23" t="inlineStr">
+      <c r="L1" s="19" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
@@ -7306,7 +7307,7 @@
       <c r="R3" s="16" t="n"/>
       <c r="S3" s="16" t="n"/>
     </row>
-    <row r="4" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="4" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
@@ -7373,7 +7374,7 @@
       <c r="R4" s="16" t="n"/>
       <c r="S4" s="16" t="n"/>
     </row>
-    <row r="5" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="5" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A5" s="9" t="n">
         <v>4</v>
       </c>
@@ -7436,7 +7437,7 @@
       <c r="R5" s="16" t="n"/>
       <c r="S5" s="16" t="n"/>
     </row>
-    <row r="6" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="6" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
@@ -7495,7 +7496,7 @@
       <c r="R6" s="13" t="n"/>
       <c r="S6" s="13" t="n"/>
     </row>
-    <row r="7" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="7" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A7" s="18" t="n">
         <v>6</v>
       </c>
@@ -7558,7 +7559,7 @@
       <c r="R7" s="13" t="n"/>
       <c r="S7" s="13" t="n"/>
     </row>
-    <row r="8" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="8" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
@@ -7621,7 +7622,7 @@
       <c r="R8" s="13" t="n"/>
       <c r="S8" s="13" t="n"/>
     </row>
-    <row r="9" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="9" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A9" s="18" t="n">
         <v>8</v>
       </c>
@@ -7676,7 +7677,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="10" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A10" s="18" t="n">
         <v>9</v>
       </c>
@@ -7723,7 +7724,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="11" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A11" s="9" t="n">
         <v>10</v>
       </c>
@@ -7770,7 +7771,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="12" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A12" s="18" t="n">
         <v>11</v>
       </c>
@@ -7821,7 +7822,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="13" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A13" s="9" t="n">
         <v>12</v>
       </c>
@@ -7872,7 +7873,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="14" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A14" s="18" t="n">
         <v>13</v>
       </c>
@@ -7923,7 +7924,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="15" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A15" s="18" t="n">
         <v>14</v>
       </c>
@@ -7970,7 +7971,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="16" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A16" s="18" t="n">
         <v>15</v>
       </c>
@@ -8017,7 +8018,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="17" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A17" s="18" t="n">
         <v>16</v>
       </c>
@@ -8064,7 +8065,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="18" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A18" s="18" t="n">
         <v>17</v>
       </c>
@@ -8111,7 +8112,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="19" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A19" s="18" t="n">
         <v>18</v>
       </c>
@@ -8158,7 +8159,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="20" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A20" s="18" t="n">
         <v>19</v>
       </c>
@@ -8205,7 +8206,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="21" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A21" s="18" t="n">
         <v>20</v>
       </c>
@@ -8252,7 +8253,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="22" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A22" s="18" t="n">
         <v>21</v>
       </c>
@@ -8299,7 +8300,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="23" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A23" s="18" t="n">
         <v>22</v>
       </c>
@@ -8346,7 +8347,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="24" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A24" s="18" t="n">
         <v>23</v>
       </c>
@@ -8393,7 +8394,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="25" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A25" s="18" t="n">
         <v>24</v>
       </c>
@@ -8440,7 +8441,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="26" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A26" s="18" t="n">
         <v>25</v>
       </c>
@@ -8487,7 +8488,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="27" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A27" s="18" t="n">
         <v>26</v>
       </c>
@@ -8538,7 +8539,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="28" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A28" s="18" t="n">
         <v>27</v>
       </c>
@@ -8585,7 +8586,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="29" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A29" s="18" t="n">
         <v>28</v>
       </c>
@@ -8632,7 +8633,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="30" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A30" s="18" t="n">
         <v>29</v>
       </c>
@@ -8679,7 +8680,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="31" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A31" s="18" t="n">
         <v>30</v>
       </c>
@@ -8726,7 +8727,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="21" customFormat="1" customHeight="1" s="24">
+    <row r="32" ht="21" customFormat="1" customHeight="1" s="20">
       <c r="A32" s="18" t="n">
         <v>31</v>
       </c>
@@ -8805,23 +8806,23 @@
       <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col width="13.625" customWidth="1" style="24" min="1" max="1"/>
-    <col width="12.5" customWidth="1" style="23" min="2" max="2"/>
-    <col width="34.125" customWidth="1" style="6" min="3" max="3"/>
-    <col width="10.125" customWidth="1" style="24" min="4" max="4"/>
-    <col width="9.75" customWidth="1" style="6" min="5" max="5"/>
-    <col width="17.875" customWidth="1" style="23" min="6" max="6"/>
-    <col width="44.375" customWidth="1" style="23" min="7" max="7"/>
-    <col width="50.625" customWidth="1" style="23" min="8" max="8"/>
-    <col width="33.875" customWidth="1" style="24" min="9" max="10"/>
-    <col width="8.875" customWidth="1" style="24" min="11" max="11"/>
-    <col width="8.875" customWidth="1" style="23" min="12" max="153"/>
-    <col width="8.875" customWidth="1" style="23" min="154" max="16384"/>
+    <col width="13.6640625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="12.5" customWidth="1" style="19" min="2" max="2"/>
+    <col width="34.1640625" customWidth="1" style="6" min="3" max="3"/>
+    <col width="10.1640625" customWidth="1" style="20" min="4" max="4"/>
+    <col width="9.6640625" customWidth="1" style="6" min="5" max="5"/>
+    <col width="17.83203125" customWidth="1" style="19" min="6" max="6"/>
+    <col width="44.33203125" customWidth="1" style="19" min="7" max="7"/>
+    <col width="50.6640625" customWidth="1" style="19" min="8" max="8"/>
+    <col width="33.83203125" customWidth="1" style="20" min="9" max="10"/>
+    <col width="8.83203125" customWidth="1" style="20" min="11" max="11"/>
+    <col width="8.83203125" customWidth="1" style="19" min="12" max="157"/>
+    <col width="8.83203125" customWidth="1" style="19" min="158" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="24">
+    <row r="1" customFormat="1" s="20">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -8878,7 +8879,7 @@
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="24">
+    <row r="2" customFormat="1" s="20">
       <c r="A2" s="28" t="n">
         <v>1</v>
       </c>
@@ -10339,19 +10340,19 @@
       <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col width="9.25" customWidth="1" style="6" min="1" max="1"/>
+    <col width="9.1640625" customWidth="1" style="6" min="1" max="1"/>
     <col width="12.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="34.125" customWidth="1" style="24" min="3" max="3"/>
-    <col width="11.75" customWidth="1" style="24" min="4" max="4"/>
-    <col width="10.25" customWidth="1" style="24" min="5" max="5"/>
-    <col width="21.375" customWidth="1" style="6" min="6" max="6"/>
-    <col width="30.625" customWidth="1" style="6" min="7" max="8"/>
+    <col width="34.1640625" customWidth="1" style="20" min="3" max="3"/>
+    <col width="11.6640625" customWidth="1" style="20" min="4" max="4"/>
+    <col width="10.1640625" customWidth="1" style="20" min="5" max="5"/>
+    <col width="21.33203125" customWidth="1" style="6" min="6" max="6"/>
+    <col width="30.6640625" customWidth="1" style="6" min="7" max="8"/>
     <col width="39.5" customWidth="1" style="6" min="9" max="10"/>
-    <col width="10.375" customWidth="1" style="24" min="11" max="11"/>
-    <col width="8.875" customWidth="1" style="6" min="12" max="154"/>
-    <col width="8.875" customWidth="1" style="6" min="155" max="16384"/>
+    <col width="10.33203125" customWidth="1" style="20" min="11" max="11"/>
+    <col width="8.83203125" customWidth="1" style="6" min="12" max="158"/>
+    <col width="8.83203125" customWidth="1" style="6" min="159" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11649,19 +11650,19 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col width="13.625" customWidth="1" style="23" min="1" max="1"/>
-    <col width="19" customWidth="1" style="23" min="2" max="2"/>
-    <col width="22.375" customWidth="1" style="24" min="3" max="3"/>
-    <col width="20.75" customWidth="1" style="24" min="4" max="4"/>
-    <col width="13.5" customWidth="1" style="24" min="5" max="5"/>
-    <col width="31.375" customWidth="1" style="23" min="6" max="6"/>
-    <col width="31.75" customWidth="1" style="23" min="7" max="8"/>
-    <col width="26.75" customWidth="1" style="23" min="9" max="10"/>
-    <col width="10.375" customWidth="1" style="24" min="11" max="11"/>
-    <col width="8.875" customWidth="1" style="23" min="12" max="154"/>
-    <col width="8.875" customWidth="1" style="23" min="155" max="16384"/>
+    <col width="13.6640625" customWidth="1" style="19" min="1" max="1"/>
+    <col width="19" customWidth="1" style="19" min="2" max="2"/>
+    <col width="22.33203125" customWidth="1" style="20" min="3" max="3"/>
+    <col width="20.6640625" customWidth="1" style="20" min="4" max="4"/>
+    <col width="13.5" customWidth="1" style="20" min="5" max="5"/>
+    <col width="31.33203125" customWidth="1" style="19" min="6" max="6"/>
+    <col width="31.6640625" customWidth="1" style="19" min="7" max="8"/>
+    <col width="26.6640625" customWidth="1" style="19" min="9" max="10"/>
+    <col width="10.33203125" customWidth="1" style="20" min="11" max="11"/>
+    <col width="8.83203125" customWidth="1" style="19" min="12" max="158"/>
+    <col width="8.83203125" customWidth="1" style="19" min="159" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12803,7 +12804,7 @@
         </is>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="19" customHeight="1">
       <c r="A24" s="18" t="n">
         <v>23</v>
       </c>
@@ -12887,19 +12888,19 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col width="13.625" customWidth="1" style="23" min="1" max="1"/>
-    <col width="15.875" customWidth="1" style="23" min="2" max="2"/>
-    <col width="34.125" customWidth="1" style="24" min="3" max="3"/>
-    <col width="16.875" customWidth="1" style="24" min="4" max="4"/>
-    <col width="13.5" customWidth="1" style="24" min="5" max="5"/>
-    <col width="41.5" customWidth="1" style="23" min="6" max="6"/>
-    <col width="31" customWidth="1" style="23" min="7" max="7"/>
-    <col width="72.625" customWidth="1" style="23" min="8" max="8"/>
-    <col width="10.375" customWidth="1" style="23" min="9" max="9"/>
-    <col width="8.875" customWidth="1" style="23" min="10" max="152"/>
-    <col width="8.875" customWidth="1" style="23" min="153" max="16384"/>
+    <col width="13.6640625" customWidth="1" style="19" min="1" max="1"/>
+    <col width="15.83203125" customWidth="1" style="19" min="2" max="2"/>
+    <col width="34.1640625" customWidth="1" style="20" min="3" max="3"/>
+    <col width="16.83203125" customWidth="1" style="20" min="4" max="4"/>
+    <col width="13.5" customWidth="1" style="20" min="5" max="5"/>
+    <col width="41.5" customWidth="1" style="19" min="6" max="6"/>
+    <col width="31" customWidth="1" style="19" min="7" max="7"/>
+    <col width="72.6640625" customWidth="1" style="19" min="8" max="8"/>
+    <col width="10.33203125" customWidth="1" style="19" min="9" max="9"/>
+    <col width="8.83203125" customWidth="1" style="19" min="10" max="156"/>
+    <col width="8.83203125" customWidth="1" style="19" min="157" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12949,7 +12950,7 @@
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="24">
+    <row r="2" ht="19" customFormat="1" customHeight="1" s="20">
       <c r="A2" s="18" t="n">
         <v>1</v>
       </c>
